--- a/OPL_OCEANIA_2019.xlsx
+++ b/OPL_OCEANIA_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A02CDE1-F868-46B7-9730-E7560386B341}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD4C91C-8912-4F61-A98C-6FD6340BD457}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="11">
   <si>
     <t>Winner</t>
   </si>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -228,15 +228,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +520,7 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G83" sqref="G82:G83"/>
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +631,7 @@
       <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="8">
         <v>2</v>
       </c>
     </row>
@@ -648,7 +642,7 @@
       <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="10">
         <v>2</v>
       </c>
     </row>
@@ -659,7 +653,7 @@
       <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="10">
         <v>2</v>
       </c>
     </row>
@@ -670,7 +664,7 @@
       <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="10">
         <v>2</v>
       </c>
     </row>
@@ -681,7 +675,7 @@
       <c r="B14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="10">
         <v>2</v>
       </c>
     </row>
@@ -692,7 +686,7 @@
       <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="10">
         <v>2</v>
       </c>
     </row>
@@ -703,7 +697,7 @@
       <c r="B16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="10">
         <v>2</v>
       </c>
     </row>
@@ -714,7 +708,7 @@
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
     </row>
@@ -725,7 +719,7 @@
       <c r="B18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="8">
         <v>3</v>
       </c>
     </row>
@@ -736,7 +730,7 @@
       <c r="B19" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="10">
         <v>3</v>
       </c>
     </row>
@@ -747,7 +741,7 @@
       <c r="B20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="10">
         <v>3</v>
       </c>
     </row>
@@ -758,7 +752,7 @@
       <c r="B21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="10">
         <v>3</v>
       </c>
     </row>
@@ -769,7 +763,7 @@
       <c r="B22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="10">
         <v>3</v>
       </c>
     </row>
@@ -780,7 +774,7 @@
       <c r="B23" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="10">
         <v>3</v>
       </c>
     </row>
@@ -791,7 +785,7 @@
       <c r="B24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="10">
         <v>3</v>
       </c>
     </row>
@@ -802,7 +796,7 @@
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="13">
         <v>3</v>
       </c>
     </row>
@@ -813,7 +807,7 @@
       <c r="B26" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="8">
         <v>4</v>
       </c>
     </row>
@@ -824,7 +818,7 @@
       <c r="B27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="10">
         <v>4</v>
       </c>
     </row>
@@ -835,7 +829,7 @@
       <c r="B28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="10">
         <v>4</v>
       </c>
     </row>
@@ -846,7 +840,7 @@
       <c r="B29" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="10">
         <v>4</v>
       </c>
     </row>
@@ -857,7 +851,7 @@
       <c r="B30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="10">
         <v>4</v>
       </c>
     </row>
@@ -868,7 +862,7 @@
       <c r="B31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="10">
         <v>4</v>
       </c>
     </row>
@@ -879,7 +873,7 @@
       <c r="B32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="10">
         <v>4</v>
       </c>
     </row>
@@ -890,7 +884,7 @@
       <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="13">
         <v>4</v>
       </c>
     </row>
@@ -901,7 +895,7 @@
       <c r="B34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="8">
         <v>5</v>
       </c>
     </row>
@@ -912,7 +906,7 @@
       <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="10">
         <v>5</v>
       </c>
     </row>
@@ -923,7 +917,7 @@
       <c r="B36" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="10">
         <v>5</v>
       </c>
     </row>
@@ -934,7 +928,7 @@
       <c r="B37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="10">
         <v>5</v>
       </c>
     </row>
@@ -945,7 +939,7 @@
       <c r="B38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="10">
         <v>5</v>
       </c>
     </row>
@@ -956,7 +950,7 @@
       <c r="B39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="10">
         <v>5</v>
       </c>
     </row>
@@ -967,7 +961,7 @@
       <c r="B40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="10">
         <v>5</v>
       </c>
     </row>
@@ -978,7 +972,7 @@
       <c r="B41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="13">
         <v>5</v>
       </c>
     </row>
@@ -989,7 +983,7 @@
       <c r="B42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1000,7 +994,7 @@
       <c r="B43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1011,7 +1005,7 @@
       <c r="B44" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1022,7 +1016,7 @@
       <c r="B45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1033,7 +1027,7 @@
       <c r="B46" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1044,7 +1038,7 @@
       <c r="B47" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1055,7 +1049,7 @@
       <c r="B48" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1066,7 +1060,7 @@
       <c r="B49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1077,7 +1071,7 @@
       <c r="B50" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1088,7 +1082,7 @@
       <c r="B51" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1099,7 +1093,7 @@
       <c r="B52" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1110,7 +1104,7 @@
       <c r="B53" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1121,7 +1115,7 @@
       <c r="B54" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1132,7 +1126,7 @@
       <c r="B55" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1143,7 +1137,7 @@
       <c r="B56" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1154,7 +1148,7 @@
       <c r="B57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="13">
         <v>7</v>
       </c>
     </row>
@@ -1165,7 +1159,7 @@
       <c r="B58" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1176,7 +1170,7 @@
       <c r="B59" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1187,7 +1181,7 @@
       <c r="B60" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1198,7 +1192,7 @@
       <c r="B61" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1206,10 +1200,10 @@
       <c r="A62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="20">
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1217,10 +1211,10 @@
       <c r="A63" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="20">
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1228,10 +1222,10 @@
       <c r="A64" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="20">
+      <c r="B64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1242,7 +1236,7 @@
       <c r="B65" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="13">
         <v>8</v>
       </c>
     </row>
@@ -1253,7 +1247,7 @@
       <c r="B66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="8">
         <v>9</v>
       </c>
     </row>
@@ -1261,10 +1255,10 @@
       <c r="A67" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="20">
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1272,10 +1266,10 @@
       <c r="A68" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="20">
+      <c r="B68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1283,10 +1277,10 @@
       <c r="A69" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="20">
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1294,10 +1288,10 @@
       <c r="A70" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="20">
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1305,10 +1299,10 @@
       <c r="A71" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="20">
+      <c r="B71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1316,10 +1310,10 @@
       <c r="A72" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="20">
+      <c r="B72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1330,7 +1324,7 @@
       <c r="B73" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73" s="13">
         <v>9</v>
       </c>
     </row>
@@ -1341,7 +1335,7 @@
       <c r="B74" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1349,10 +1343,10 @@
       <c r="A75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="20">
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1360,10 +1354,10 @@
       <c r="A76" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="20">
+      <c r="B76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1371,10 +1365,10 @@
       <c r="A77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="20">
+      <c r="B77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1382,10 +1376,10 @@
       <c r="A78" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="20">
+      <c r="B78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1393,10 +1387,10 @@
       <c r="A79" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="20">
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1404,10 +1398,10 @@
       <c r="A80" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="20">
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1415,10 +1409,10 @@
       <c r="A81" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="20">
+      <c r="B81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1426,10 +1420,10 @@
       <c r="A82" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="20">
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1437,10 +1431,10 @@
       <c r="A83" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="20">
+      <c r="B83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1448,10 +1442,10 @@
       <c r="A84" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="20">
+      <c r="B84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1462,106 +1456,106 @@
       <c r="B85" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="20">
+      <c r="A86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="20">
+      <c r="A87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="20">
+      <c r="A88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="20">
+      <c r="A89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="20">
+      <c r="A90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="20">
+      <c r="A91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="20">
+      <c r="A92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" s="20">
+      <c r="A93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="20">
+      <c r="A94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -1572,75 +1566,96 @@
       <c r="B95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
     </row>

--- a/OPL_OCEANIA_2019.xlsx
+++ b/OPL_OCEANIA_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD4C91C-8912-4F61-A98C-6FD6340BD457}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981BE3F1-B78A-4DF0-BEAE-6943BD74CD8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -230,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,21 +1464,21 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="10">
+      <c r="A86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="3" t="s">
+      <c r="A87" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="10">
@@ -1483,10 +1486,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="A88" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="10">
@@ -1494,10 +1497,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="A89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="10">
@@ -1505,10 +1508,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="A90" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="10">
@@ -1516,10 +1519,10 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="A91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="10">
@@ -1527,10 +1530,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="A92" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="10">
@@ -1538,10 +1541,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="A93" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="10">
@@ -1549,10 +1552,10 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="3" t="s">
+      <c r="A94" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="10">
@@ -1560,10 +1563,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="10">
@@ -1571,10 +1574,10 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="A96" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="10">
@@ -1582,24 +1585,24 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="A97" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="10">
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="10">
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="13">
         <v>-1</v>
       </c>
     </row>
